--- a/data/busan_pop.xlsx
+++ b/data/busan_pop.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgv4JvJ4ltc+dmQAydrrKEg8Px84Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjQD4MFhUlQF8enEUhAgt2x3GrbYg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -231,11 +231,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Dotum"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -243,6 +244,11 @@
       <name val="Dotum"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Dotum"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -430,11 +436,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
